--- a/Documentos/lista_verificacao_individual_renomear_alunos.xlsx
+++ b/Documentos/lista_verificacao_individual_renomear_alunos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49576653894\Desktop\Nova pasta\Prova_Saep\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9527854-8724-47CA-87C8-AAF72FC3838A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4C0C25-BB25-4E5B-B909-88FE2541B3B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t>Dicas</t>
   </si>
   <si>
-    <t xml:space="preserve">Repositório do GitHub: </t>
-  </si>
-  <si>
     <t>Vinicius Gabriel de Souza</t>
   </si>
   <si>
@@ -507,6 +504,9 @@
   </si>
   <si>
     <t>O servidor faz essa inserção automaticamente</t>
+  </si>
+  <si>
+    <t>Repositório do GitHub: https://github.com/vini5474/Prova_Saep.git</t>
   </si>
 </sst>
 </file>
@@ -770,6 +770,63 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,65 +836,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,28 +1255,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="17"/>
@@ -1288,10 +1288,10 @@
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1326,15 +1326,15 @@
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="36"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -1372,10 +1372,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1391,7 +1391,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="8"/>
@@ -1400,8 +1400,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -1424,12 +1424,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="25" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1439,16 +1439,16 @@
         <v>34</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="7" t="s">
         <v>35</v>
       </c>
@@ -1456,16 +1456,16 @@
         <v>36</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="34"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1473,18 +1473,18 @@
         <v>38</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="28" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="40" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1494,7 +1494,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
@@ -1503,10 +1503,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1514,20 +1514,20 @@
         <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1537,16 +1537,16 @@
         <v>49</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1554,16 +1554,16 @@
         <v>51</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="8"/>
@@ -1580,10 +1580,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1591,16 +1591,16 @@
         <v>55</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="7" t="s">
         <v>56</v>
       </c>
@@ -1608,16 +1608,16 @@
         <v>57</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="33"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="7" t="s">
         <v>58</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="8"/>
@@ -1634,10 +1634,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="7" t="s">
         <v>60</v>
       </c>
@@ -1645,16 +1645,16 @@
         <v>61</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="7" t="s">
         <v>62</v>
       </c>
@@ -1662,16 +1662,16 @@
         <v>63</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="7" t="s">
         <v>64</v>
       </c>
@@ -1679,16 +1679,16 @@
         <v>65</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="7" t="s">
         <v>66</v>
       </c>
@@ -1696,16 +1696,16 @@
         <v>121</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="7" t="s">
         <v>67</v>
       </c>
@@ -1713,16 +1713,16 @@
         <v>120</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="7" t="s">
         <v>68</v>
       </c>
@@ -1730,16 +1730,16 @@
         <v>119</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="7" t="s">
         <v>69</v>
       </c>
@@ -1747,16 +1747,16 @@
         <v>118</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="33"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="7" t="s">
         <v>70</v>
       </c>
@@ -1764,16 +1764,16 @@
         <v>71</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="7" t="s">
         <v>72</v>
       </c>
@@ -1781,16 +1781,16 @@
         <v>73</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="7" t="s">
         <v>74</v>
       </c>
@@ -1798,17 +1798,17 @@
         <v>75</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="8"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="33"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="7" t="s">
         <v>76</v>
       </c>
@@ -1816,16 +1816,16 @@
         <v>77</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="7" t="s">
         <v>78</v>
       </c>
@@ -1834,17 +1834,17 @@
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="34" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="7" t="s">
         <v>80</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>81</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="8"/>
@@ -1861,16 +1861,16 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="40" t="s">
         <v>85</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1882,15 +1882,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="42" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="3" t="s">
         <v>88</v>
       </c>
@@ -1900,11 +1900,11 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="24"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="7" t="s">
         <v>90</v>
       </c>
@@ -1920,17 +1920,17 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="24"/>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="28" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="40" t="s">
         <v>96</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1942,13 +1942,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="30"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="3" t="s">
         <v>99</v>
       </c>
@@ -1958,13 +1958,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="27"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="3" t="s">
         <v>101</v>
       </c>
@@ -1974,10 +1974,10 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="24"/>
+      <c r="J40" s="43"/>
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="7" t="s">
         <v>103</v>
       </c>
@@ -1994,14 +1994,14 @@
         <v>107</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="24"/>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="25"/>
+      <c r="J42" s="44"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D43" s="13"/>
@@ -2084,13 +2084,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B35:B37"/>
@@ -2101,11 +2099,13 @@
     <mergeCell ref="B16:B34"/>
     <mergeCell ref="A9:A34"/>
     <mergeCell ref="B9:B15"/>
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Documentos/lista_verificacao_individual_renomear_alunos.xlsx
+++ b/Documentos/lista_verificacao_individual_renomear_alunos.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49576653894\Desktop\Nova pasta\Prova_Saep\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\OneDrive\Área de Trabalho\Nova pasta\Prova_Saep\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4C0C25-BB25-4E5B-B909-88FE2541B3B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EE4C18-C8AB-491F-9D92-6F7E65A495E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>LISTA DE VERIFICAÇÃO – Técnico em Desenvolvimento de Sistemas</t>
   </si>
@@ -702,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,9 +733,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,10 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -770,30 +759,57 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -811,33 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,11 +1225,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
@@ -1251,63 +1240,57 @@
     <col min="7" max="8" width="6" style="2" customWidth="1"/>
     <col min="9" max="9" width="30" style="2" customWidth="1"/>
     <col min="10" max="10" width="120" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1316,30 +1299,22 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="36" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F6" s="43"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1349,7 +1324,7 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1367,21 +1342,21 @@
       <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1395,17 +1370,17 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1423,13 +1398,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="28" t="s">
+    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="30" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1444,11 +1419,11 @@
       <c r="H11" s="9"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="26"/>
+    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="7" t="s">
         <v>35</v>
       </c>
@@ -1461,11 +1436,11 @@
       <c r="H12" s="9"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="27"/>
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1478,13 +1453,13 @@
       <c r="H13" s="9"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="37" t="s">
+    <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1498,15 +1473,15 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="41"/>
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1519,15 +1494,15 @@
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="30" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1542,11 +1517,11 @@
       <c r="H16" s="9"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="26"/>
+    <row r="17" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1559,11 +1534,11 @@
       <c r="H17" s="9"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="26"/>
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1575,15 +1550,15 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="26"/>
+    <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1596,11 +1571,11 @@
       <c r="H19" s="9"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="26"/>
+    <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="7" t="s">
         <v>56</v>
       </c>
@@ -1613,11 +1588,11 @@
       <c r="H20" s="9"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="26"/>
+    <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="7" t="s">
         <v>58</v>
       </c>
@@ -1633,11 +1608,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="26"/>
+    <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="7" t="s">
         <v>60</v>
       </c>
@@ -1650,11 +1625,11 @@
       <c r="H22" s="9"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="26"/>
+    <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="7" t="s">
         <v>62</v>
       </c>
@@ -1667,11 +1642,11 @@
       <c r="H23" s="9"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="26"/>
+    <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="7" t="s">
         <v>64</v>
       </c>
@@ -1684,11 +1659,11 @@
       <c r="H24" s="9"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="26"/>
+    <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="7" t="s">
         <v>66</v>
       </c>
@@ -1701,11 +1676,11 @@
       <c r="H25" s="9"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="26"/>
+    <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="7" t="s">
         <v>67</v>
       </c>
@@ -1718,11 +1693,11 @@
       <c r="H26" s="9"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="26"/>
+    <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="7" t="s">
         <v>68</v>
       </c>
@@ -1735,11 +1710,11 @@
       <c r="H27" s="9"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="26"/>
+    <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="7" t="s">
         <v>69</v>
       </c>
@@ -1752,11 +1727,11 @@
       <c r="H28" s="9"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="26"/>
+    <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="7" t="s">
         <v>70</v>
       </c>
@@ -1769,11 +1744,11 @@
       <c r="H29" s="9"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="26"/>
+    <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="7" t="s">
         <v>72</v>
       </c>
@@ -1786,11 +1761,11 @@
       <c r="H30" s="9"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="26"/>
+    <row r="31" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="7" t="s">
         <v>74</v>
       </c>
@@ -1804,11 +1779,11 @@
       <c r="I31" s="8"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="26"/>
+    <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="7" t="s">
         <v>76</v>
       </c>
@@ -1821,11 +1796,11 @@
       <c r="H32" s="9"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="26"/>
+    <row r="33" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="7" t="s">
         <v>78</v>
       </c>
@@ -1840,11 +1815,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="27"/>
+    <row r="34" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="7" t="s">
         <v>80</v>
       </c>
@@ -1860,17 +1835,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="24" t="s">
         <v>85</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1879,36 +1854,40 @@
       <c r="F35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="42" t="s">
+      <c r="J35" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="41"/>
+    <row r="36" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="43"/>
-    </row>
-    <row r="37" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -1918,19 +1897,21 @@
         <v>93</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="I37" s="8"/>
-      <c r="J37" s="43"/>
-    </row>
-    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="37" t="s">
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="24" t="s">
         <v>96</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1939,52 +1920,58 @@
       <c r="F38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="43"/>
-    </row>
-    <row r="39" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="45"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="43"/>
-    </row>
-    <row r="40" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="41"/>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="43"/>
-    </row>
-    <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
       <c r="B41" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>105</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -1998,17 +1985,17 @@
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="43"/>
-    </row>
-    <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>110</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -2017,78 +2004,82 @@
       <c r="F42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="44"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="13"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="13"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="13"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="13"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="13"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="13"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="13"/>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="13"/>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="13"/>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="13"/>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="13"/>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="13"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="12"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B35:B37"/>
@@ -2099,13 +2090,11 @@
     <mergeCell ref="B16:B34"/>
     <mergeCell ref="A9:A34"/>
     <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
